--- a/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 10 07.xlsx
+++ b/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 10 07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCAEAA8-6229-324F-A7D4-D25CD70D8C96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43178D-EDFA-AC4A-8CC4-903A9BD10261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52200" yWindow="-2720" windowWidth="14740" windowHeight="23340" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -188,12 +188,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C04E9F-441B-3545-BD1F-8BC23CAF93DD}">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L12"/>
+    <sheetView tabSelected="1" topLeftCell="L20" zoomScale="99" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,36 +537,36 @@
     <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
       <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -663,12 +665,12 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,7 +719,7 @@
       </c>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -766,7 +768,7 @@
       </c>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -815,7 +817,7 @@
       </c>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -864,7 +866,7 @@
       </c>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -908,12 +910,12 @@
       <c r="Q8" t="s">
         <v>18</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -957,12 +959,12 @@
       <c r="Q9" t="s">
         <v>18</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1006,12 +1008,12 @@
       <c r="Q10" t="s">
         <v>18</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1055,12 +1057,12 @@
       <c r="Q11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1104,12 +1106,13 @@
       <c r="Q12" t="s">
         <v>18</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1155,12 +1158,12 @@
       <c r="Q13" t="s">
         <v>18</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1204,12 +1207,12 @@
       <c r="Q14" t="s">
         <v>18</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1253,12 +1256,12 @@
       <c r="Q15" t="s">
         <v>18</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1403,7 @@
       <c r="Q18" t="s">
         <v>18</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S18" s="6"/>
@@ -1647,7 +1650,7 @@
       <c r="Q23" t="s">
         <v>18</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S23" s="5"/>
@@ -1696,7 +1699,7 @@
       <c r="Q24" t="s">
         <v>18</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S24" s="6"/>
@@ -1745,7 +1748,7 @@
       <c r="Q25" t="s">
         <v>18</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S25" s="6"/>
@@ -1794,7 +1797,7 @@
       <c r="Q26" t="s">
         <v>18</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S26" s="6"/>
@@ -1990,7 +1993,7 @@
       <c r="Q30" t="s">
         <v>18</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S30" s="6"/>
@@ -2039,7 +2042,7 @@
       <c r="Q31" t="s">
         <v>18</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S31" s="6"/>
@@ -2237,7 +2240,7 @@
       <c r="Q35" t="s">
         <v>18</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S35" s="6"/>
@@ -2384,7 +2387,7 @@
       <c r="Q38" t="s">
         <v>18</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S38" s="6"/>
@@ -2433,7 +2436,7 @@
       <c r="Q39" t="s">
         <v>18</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S39" s="6"/>
@@ -2482,7 +2485,7 @@
       <c r="Q40" t="s">
         <v>18</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S40" s="6"/>
@@ -2531,7 +2534,7 @@
       <c r="Q41" t="s">
         <v>18</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S41" s="6"/>
@@ -2580,7 +2583,7 @@
       <c r="Q42" t="s">
         <v>18</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S42" s="6"/>
@@ -2631,7 +2634,7 @@
       <c r="Q43" t="s">
         <v>18</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S43" s="5"/>
@@ -2680,7 +2683,7 @@
       <c r="Q44" t="s">
         <v>18</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S44" s="6"/>
@@ -2827,7 +2830,7 @@
       <c r="Q47" t="s">
         <v>18</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S47" s="6"/>
@@ -2876,7 +2879,7 @@
       <c r="Q48" t="s">
         <v>18</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S48" s="6"/>
@@ -2925,7 +2928,7 @@
       <c r="Q49" t="s">
         <v>18</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S49" s="6"/>
@@ -3023,7 +3026,7 @@
       <c r="Q51" t="s">
         <v>18</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S51" s="6"/>
@@ -3072,7 +3075,7 @@
       <c r="Q52" t="s">
         <v>18</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S52" s="6"/>
@@ -3929,12 +3932,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="S43:S52"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S3:S12"/>
-    <mergeCell ref="S13:S22"/>
-    <mergeCell ref="S23:S32"/>
-    <mergeCell ref="S33:S42"/>
     <mergeCell ref="L33:L42"/>
     <mergeCell ref="L43:L52"/>
     <mergeCell ref="A1:E1"/>
@@ -3942,6 +3939,12 @@
     <mergeCell ref="L3:L12"/>
     <mergeCell ref="L13:L22"/>
     <mergeCell ref="L23:L32"/>
+    <mergeCell ref="S43:S52"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="S13:S22"/>
+    <mergeCell ref="S23:S32"/>
+    <mergeCell ref="S33:S42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
